--- a/biology/Zoologie/Grypotyphlops_acutus/Grypotyphlops_acutus.xlsx
+++ b/biology/Zoologie/Grypotyphlops_acutus/Grypotyphlops_acutus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grypotyphlops acutus, unique représentant du genre Grypotyphlops, est une espèce de serpents de la famille des Typhlopidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grypotyphlops acutus, unique représentant du genre Grypotyphlops, est une espèce de serpents de la famille des Typhlopidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique d'Inde[1]. Elle se rencontre au Kerala, au Tamil Nadu, en Andhra Pradesh, au Karnataka, à Goa, au Maharashtra, au Gujarat, au Madhya Pradesh, en Uttar Pradesh, au Bihar, au Jharkhand, au Chhattisgarh, en Odisha et au Bengale-Occidental[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'Inde. Elle se rencontre au Kerala, au Tamil Nadu, en Andhra Pradesh, au Karnataka, à Goa, au Maharashtra, au Gujarat, au Madhya Pradesh, en Uttar Pradesh, au Bihar, au Jharkhand, au Chhattisgarh, en Odisha et au Bengale-Occidental.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique acutus vient du latin acutus, aigu, aiguisé, tranchant, vif, pointu, en référence à l'aspect de ce saurien[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique acutus vient du latin acutus, aigu, aiguisé, tranchant, vif, pointu, en référence à l'aspect de ce saurien.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Duméril &amp; Bibron, 1844 : Erpétologie générale ou Histoire naturelle complète des reptiles. Librairie encyclopédique Roret, Paris, vol. 6, p. 1-609 (texte intégral).
 Peters, 1881 : Einige herpetologische Mittheilungen. 1. Uebersicht der zu den Familien der Typhlopes und Stenostomi gehörigen Gattungen oder Untergattungen. 2. Ueber eine neue Art von Tachydromus aus dem Amurlande. 3. Ueber die von Herrn Dr. finsch aus Polynesien gesandten Reptilien. Sitzungsberichte der Gesellschaft Naturforschender Freunde zu Berlin, vol. 1881, no 4, p. 69-72 (texte intégral).</t>
